--- a/9b_Farm_Expenses_Reference.xlsx
+++ b/9b_Farm_Expenses_Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatphetheet/Documents/GitHub/FEWCalc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2788EBC-281A-1747-8183-DE9FE68A55E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294C790-3CC2-274C-B863-94281215682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Crop</t>
   </si>
@@ -56,18 +56,6 @@
     <t>Dryland</t>
   </si>
   <si>
-    <t>Yield</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
@@ -147,6 +135,81 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Low (&lt;210)</t>
+  </si>
+  <si>
+    <t>Moderate (210-237.5)</t>
+  </si>
+  <si>
+    <t>High (&gt;237.5)</t>
+  </si>
+  <si>
+    <t>Low (&lt;66)</t>
+  </si>
+  <si>
+    <t>Yield (bu/ac)</t>
+  </si>
+  <si>
+    <t>Moderate (66-91)</t>
+  </si>
+  <si>
+    <t>High (&gt;91)</t>
+  </si>
+  <si>
+    <t>Low (&lt;62.5)</t>
+  </si>
+  <si>
+    <t>Moderate (62.5-67.5)</t>
+  </si>
+  <si>
+    <t>High (&gt;67.5)</t>
+  </si>
+  <si>
+    <t>Low (&lt;37.5)</t>
+  </si>
+  <si>
+    <t>Moderate (37.5-46.5)</t>
+  </si>
+  <si>
+    <t>High (&gt;46.5)</t>
+  </si>
+  <si>
+    <t>Low (&lt;58)</t>
+  </si>
+  <si>
+    <t>Moderate (58-64)</t>
+  </si>
+  <si>
+    <t>High (&gt;64)</t>
+  </si>
+  <si>
+    <t>Low (&lt;22.5)</t>
+  </si>
+  <si>
+    <t>Moderate (22.5-27.5)</t>
+  </si>
+  <si>
+    <t>High (&gt;27.5)</t>
+  </si>
+  <si>
+    <t>Low (&lt;150)</t>
+  </si>
+  <si>
+    <t>Moderate (150-170)</t>
+  </si>
+  <si>
+    <t>High (&gt;170)</t>
+  </si>
+  <si>
+    <t>Low (&lt;68)</t>
+  </si>
+  <si>
+    <t>Moderate (68-93)</t>
+  </si>
+  <si>
+    <t>High (&gt;93)</t>
   </si>
 </sst>
 </file>
@@ -990,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1155,84 +1218,84 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>103.51</v>
@@ -1309,7 +1372,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>91.14</v>
@@ -1386,7 +1449,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>8.4600000000000009</v>
@@ -1463,7 +1526,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>46.96</v>
@@ -1540,7 +1603,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1.61</v>
@@ -1617,7 +1680,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>6.28</v>
@@ -1694,7 +1757,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>16.5</v>
@@ -1771,7 +1834,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>6.5</v>
@@ -1848,7 +1911,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>18.21</v>
@@ -1925,7 +1988,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2002,7 +2065,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>17.55</v>
@@ -2079,7 +2142,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>22.38</v>
@@ -2156,7 +2219,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>29.3</v>
@@ -2233,7 +2296,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>29.29</v>
@@ -2310,7 +2373,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>36.81</v>
@@ -2387,7 +2450,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>8.7799999999999994</v>
@@ -2464,7 +2527,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>17.600000000000001</v>
@@ -2541,7 +2604,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>27.6</v>
@@ -2618,7 +2681,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
@@ -2695,7 +2758,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -2772,7 +2835,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>16.170000000000002</v>
@@ -2849,7 +2912,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>35.090000000000003</v>
@@ -2926,7 +2989,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>5.28</v>
@@ -3003,7 +3066,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>76.67</v>
@@ -3080,7 +3143,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>59.22</v>
@@ -3157,7 +3220,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>95.33</v>
@@ -3234,7 +3297,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <f>SUM(B4:B29)</f>
@@ -3334,7 +3397,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ryxJR8D0Tb3iFr/VA8VZlbgh31rZeE8PgslgSizIoND7RvJXXHV96kW8Xnd4ikbjaZkW5q/Pl/6fzUfD2Q1SIA==" saltValue="xKeOI8y7LKRmX4DpnVtAng==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LKEmOQab9zz/TpLSobCf7vZ6TjyD9WAmcWr8ghFDQjmdrNeIZagkQlOAZgIgI08tkd3AvGX6aGguP8oqrFOyvg==" saltValue="493NLFIZh5X3B/jZEmn0CA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>